--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value37.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value37.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7522225022203238</v>
+        <v>2.071777105331421</v>
       </c>
       <c r="B1">
-        <v>0.839619247422111</v>
+        <v>2.602810621261597</v>
       </c>
       <c r="C1">
-        <v>1.015234205144999</v>
+        <v>3.698626041412354</v>
       </c>
       <c r="D1">
-        <v>1.885150603054665</v>
+        <v>5.696628093719482</v>
       </c>
       <c r="E1">
-        <v>3.772521812790589</v>
+        <v>1.71710991859436</v>
       </c>
     </row>
   </sheetData>
